--- a/medicine/Mort/Pierre_tombale/Pierre_tombale.xlsx
+++ b/medicine/Mort/Pierre_tombale/Pierre_tombale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une pierre tombale est un monument funéraire en pierre. Elle comporte généralement le nom de la personne enterrée, ses dates de naissance et de décès, ainsi parfois qu'un message personnel ou une prière appelé épitaphe. Lorsqu'elle est placée debout à la tête d'une tombe on parlera plus précisément d'une stèle.
 Une dalle funéraire (en), appelée aussi dalle tumulaire, est une plaque, le plus souvent de pierre et posée au-dessus d'une sépulture, notamment dans le dallage d'une église ou sur un mur, et portant en général une épitaphe ou une effigie gravée.
@@ -512,9 +524,11 @@
           <t>Composition d’une pierre tombale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monument funéraire se compose de plusieurs pièces destinées à être assemblées pour former un ensemble, la tombe[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monument funéraire se compose de plusieurs pièces destinées à être assemblées pour former un ensemble, la tombe :
 semelle : appelée aussi « passe pied », c'est la partie horizontale qui forme l’assise du monument ;
 soubassement : appelé aussi « parpaing », il constitue la base du monument funéraire. Carré ou arrondi, il peut être muni d'un prie-dieu ou d'une jardinière ;
 stèle : élément vertical de forme variée (doucine, parchemin, cœur, tulipe, triangulaire) destiné à recevoir l’épitaphe et l’ornement (lithogravure, sculpture en bas relief, pâte de verre), directement planté dans le sol ou rehaussé par un socle ;
